--- a/estructura de costos formuLIA.xlsx
+++ b/estructura de costos formuLIA.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fundacionluker-my.sharepoint.com/personal/scardona_funluker_org_co/Documents/fomulIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1231" documentId="8_{243C73BA-1439-40DE-9104-190A67347241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652F4DD3-EEE1-4771-BFA3-CD2DC846092C}"/>
+  <xr:revisionPtr revIDLastSave="1325" documentId="8_{243C73BA-1439-40DE-9104-190A67347241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89B79125-5B5D-4307-B679-0F2A0ED8EA5D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{B0C7D60E-8102-4CDA-A232-E4B71618C53F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B0C7D60E-8102-4CDA-A232-E4B71618C53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrícula" sheetId="9" r:id="rId1"/>
-    <sheet name="RESUMEN" sheetId="10" r:id="rId2"/>
-    <sheet name=" FORMACIÓN" sheetId="1" r:id="rId3"/>
-    <sheet name="MONITOREO" sheetId="6" r:id="rId4"/>
-    <sheet name="OPERACIÓN" sheetId="8" r:id="rId5"/>
-    <sheet name="BASE OPERACIÓN" sheetId="2" r:id="rId6"/>
-    <sheet name="CONSULTORÍA" sheetId="5" r:id="rId7"/>
-    <sheet name="COSTOS FIJOS" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="GASTOS ADMINISTRATIVOS" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="DATOS ENTRADA" sheetId="11" r:id="rId2"/>
+    <sheet name="RESUMEN" sheetId="10" r:id="rId3"/>
+    <sheet name="FORMACIÓN" sheetId="1" r:id="rId4"/>
+    <sheet name="MONITOREO" sheetId="6" r:id="rId5"/>
+    <sheet name="OPERACIÓN" sheetId="8" r:id="rId6"/>
+    <sheet name="BASE OPERACIÓN" sheetId="2" r:id="rId7"/>
+    <sheet name="CONSULTORÍA" sheetId="5" r:id="rId8"/>
+    <sheet name="COSTOS FIJOS" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="GASTOS ADMINISTRATIVOS" sheetId="4" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,25 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="250">
-  <si>
-    <t>Introducción y ruta metodológica transición</t>
-  </si>
-  <si>
-    <t>Introducción y marco conceptual 1°</t>
-  </si>
-  <si>
-    <t>Ruta metodológica y uso de materiales 1°</t>
-  </si>
-  <si>
-    <t>Ruta evaluativa y diferenciación en el aula 1°</t>
-  </si>
-  <si>
-    <t>Introducción y ruta metodológica remediación</t>
-  </si>
-  <si>
-    <t>Evaluaciones diagnósticas remediación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="261">
   <si>
     <t>Capacitación aplicadores pruebas EGRA</t>
   </si>
@@ -847,9 +831,6 @@
     <t>Sesiones</t>
   </si>
   <si>
-    <t>Capacitación  pruebas EGRA</t>
-  </si>
-  <si>
     <t>EVALUACIONES FORMATIVAS GRADO 1°</t>
   </si>
   <si>
@@ -878,6 +859,60 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiantes </t>
+  </si>
+  <si>
+    <t>1°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>4°</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>Grado</t>
+  </si>
+  <si>
+    <t>Cantidad de temas</t>
+  </si>
+  <si>
+    <t>Valor x tema</t>
+  </si>
+  <si>
+    <t>Introducción al programa y marco conceptual</t>
+  </si>
+  <si>
+    <t>Introducción, ruta metodológica y materiales de Transición</t>
+  </si>
+  <si>
+    <t>Ruta metodológica y uso de materiales primero</t>
+  </si>
+  <si>
+    <t>Ruta evaluativa y diferenciación en el aula primero</t>
+  </si>
+  <si>
+    <t>Introducción y ruta metodológica remediación 2° a 5°</t>
+  </si>
+  <si>
+    <t>Evaluaciones diagnósticas remediación 2° a 5°</t>
+  </si>
+  <si>
+    <t>Valor con costos logísiticos</t>
+  </si>
+  <si>
+    <t>Valor total por docente</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1152,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1183,9 +1218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,6 +1238,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,6 +1272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1582,94 +1619,94 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="2:20" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="S3" s="51"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="46"/>
+      <c r="C4" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-    </row>
-    <row r="3" spans="2:20" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="S3" s="52"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="47"/>
-      <c r="C4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>213</v>
-      </c>
       <c r="E4" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1681,7 +1718,7 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="42">
         <v>44</v>
       </c>
@@ -1728,25 +1765,25 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="J6" s="52"/>
+      <c r="B6" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="51"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1758,30 +1795,30 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="47"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1794,7 +1831,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="42">
         <v>62</v>
       </c>
@@ -1841,25 +1878,25 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="J9" s="52"/>
+      <c r="C9" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="51"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1871,30 +1908,30 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="47"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1907,7 +1944,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="43">
         <v>24</v>
       </c>
@@ -1977,16 +2014,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="B3:B5"/>
@@ -1998,17 +2025,240 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8FBFDD-6B74-48FA-BE3E-C18C40BE5BEC}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="8">
+        <v>11183117</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="23">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8">
+        <f>+B4*C4*D4</f>
+        <v>4025922.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4978138</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="23">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="0">+B5*C5*D5</f>
+        <v>1792129.6799999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="8">
+        <v>21773036</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="23">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>13063821.600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7992996</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="23">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>4795797.6000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4978138</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="23">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>2986882.8000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <f>+SUM(E4:E8)</f>
+        <v>26664553.800000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B4798-46A6-4E9B-A669-674FF103F172}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <f>+SUM(B3:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>+SUM(C3:C8)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873AB547-F340-471C-AD62-1B15945341BC}">
   <dimension ref="A2:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2024,25 +2274,25 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" s="8">
-        <f>+' FORMACIÓN'!E34</f>
+        <f>+FORMACIÓN!E34</f>
         <v>1544000</v>
       </c>
       <c r="C3" s="1">
-        <f>+Matrícula!T13</f>
+        <f>+'DATOS ENTRADA'!C9</f>
         <v>37</v>
       </c>
       <c r="D3" s="21">
@@ -2052,20 +2302,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B7" s="12">
         <f>+MONITOREO!B4</f>
@@ -2074,7 +2324,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="12">
         <f>+MONITOREO!B5</f>
@@ -2083,7 +2333,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B9" s="12">
         <f>+MONITOREO!B6</f>
@@ -2092,7 +2342,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B10" s="12">
         <f>+MONITOREO!B7</f>
@@ -2101,7 +2351,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B11" s="12">
         <f>+MONITOREO!B8</f>
@@ -2110,7 +2360,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B12" s="12">
         <f>+MONITOREO!B9</f>
@@ -2119,7 +2369,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B13" s="12">
         <f>+MONITOREO!B10</f>
@@ -2128,7 +2378,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B14" s="12">
         <f>+MONITOREO!B11</f>
@@ -2137,7 +2387,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B15" s="12">
         <f>+MONITOREO!B12</f>
@@ -2146,7 +2396,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16" s="40">
         <f>+SUM(B7:B15)</f>
@@ -2155,27 +2405,27 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8">
         <f>+'BASE OPERACIÓN'!H55</f>
@@ -2201,7 +2451,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="53"/>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C20" s="8">
         <f>+'BASE OPERACIÓN'!H56</f>
@@ -2219,7 +2469,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="53"/>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" s="8">
         <f>+'BASE OPERACIÓN'!H57</f>
@@ -2245,7 +2495,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="53"/>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8">
         <f>+'BASE OPERACIÓN'!H58</f>
@@ -2263,7 +2513,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="53"/>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8">
         <f>+'BASE OPERACIÓN'!H59</f>
@@ -2280,10 +2530,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8">
         <f>+'BASE OPERACIÓN'!H60</f>
@@ -2309,7 +2559,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="53"/>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" s="8">
         <f>+'BASE OPERACIÓN'!H61</f>
@@ -2327,7 +2577,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="53"/>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="8">
         <f>+'BASE OPERACIÓN'!H62</f>
@@ -2353,7 +2603,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="53"/>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="8">
         <f>+'BASE OPERACIÓN'!H63</f>
@@ -2371,7 +2621,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="53"/>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8">
         <f>+'BASE OPERACIÓN'!H64</f>
@@ -2389,7 +2639,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="53"/>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C29" s="8">
         <f>+'BASE OPERACIÓN'!H65</f>
@@ -2407,7 +2657,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="53"/>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" s="8">
         <f>+'BASE OPERACIÓN'!H66</f>
@@ -2425,7 +2675,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="53"/>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C31" s="8">
         <f>+'BASE OPERACIÓN'!H67</f>
@@ -2443,7 +2693,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="53"/>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C32" s="8">
         <f>+'BASE OPERACIÓN'!H68</f>
@@ -2461,7 +2711,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="53"/>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C33" s="8">
         <f>+'BASE OPERACIÓN'!H69</f>
@@ -2479,7 +2729,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="53"/>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C34" s="8">
         <f>+'BASE OPERACIÓN'!H70</f>
@@ -2496,10 +2746,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C35" s="8">
         <f>+'BASE OPERACIÓN'!H71</f>
@@ -2521,7 +2771,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="53"/>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C36" s="8">
         <f>+'BASE OPERACIÓN'!H72</f>
@@ -2547,7 +2797,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="53"/>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C37" s="8">
         <f>+'BASE OPERACIÓN'!H73</f>
@@ -2565,7 +2815,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="53"/>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C38" s="8">
         <f>+'BASE OPERACIÓN'!H74</f>
@@ -2582,7 +2832,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D39" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E39" s="40">
         <f>+SUM(E19:E38)</f>
@@ -2591,18 +2841,18 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41" s="39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B42" s="8">
         <f>+OPERACIÓN!B9</f>
@@ -2619,7 +2869,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B43" s="8">
         <f>+OPERACIÓN!B18</f>
@@ -2636,7 +2886,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C44" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D44" s="40">
         <f>+D42+D43</f>
@@ -2645,7 +2895,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B47" s="40">
         <f>+D44+E39+B16+D3</f>
@@ -2654,7 +2904,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B48" s="1">
         <f>+Matrícula!K5+Matrícula!K8+Matrícula!K11</f>
@@ -2663,7 +2913,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B49" s="8">
         <f>+B47/B48</f>
@@ -2673,40 +2923,41 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="E53" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f>+FORMACIÓN!B3</f>
+        <v>Introducción, ruta metodológica y materiales de Transición</v>
       </c>
       <c r="C54" s="1">
         <f>+C3</f>
         <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E54" s="12">
-        <f>+' FORMACIÓN'!O3</f>
+        <f>+FORMACIÓN!O3</f>
         <v>214529.85239085238</v>
       </c>
       <c r="F54" s="12">
@@ -2716,18 +2967,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="56"/>
-      <c r="B55" s="2" t="s">
-        <v>1</v>
+      <c r="B55" s="2" t="str">
+        <f>+FORMACIÓN!B4</f>
+        <v>Introducción al programa y marco conceptual</v>
       </c>
       <c r="C55" s="1">
         <f>+C54</f>
         <v>37</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E55" s="12">
-        <f>+' FORMACIÓN'!O4</f>
+        <f>+FORMACIÓN!O4</f>
         <v>242804.28066528065</v>
       </c>
       <c r="F55" s="12">
@@ -2737,18 +2989,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="56"/>
-      <c r="B56" s="2" t="s">
-        <v>2</v>
+      <c r="B56" s="2" t="str">
+        <f>+FORMACIÓN!B5</f>
+        <v>Ruta metodológica y uso de materiales primero</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" ref="C56:C60" si="2">+C55</f>
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E56" s="12">
-        <f>+' FORMACIÓN'!O5</f>
+        <f>+FORMACIÓN!O5</f>
         <v>214529.85239085238</v>
       </c>
       <c r="F56" s="12">
@@ -2758,18 +3011,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="56"/>
-      <c r="B57" s="2" t="s">
-        <v>3</v>
+      <c r="B57" s="2" t="str">
+        <f>+FORMACIÓN!B6</f>
+        <v>Ruta evaluativa y diferenciación en el aula primero</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E57" s="12">
-        <f>+' FORMACIÓN'!O6</f>
+        <f>+FORMACIÓN!O6</f>
         <v>214529.85239085238</v>
       </c>
       <c r="F57" s="12">
@@ -2779,18 +3033,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="56"/>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
+      <c r="B58" s="2" t="str">
+        <f>+FORMACIÓN!B7</f>
+        <v>Introducción y ruta metodológica remediación 2° a 5°</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E58" s="12">
-        <f>+' FORMACIÓN'!O7</f>
+        <f>+FORMACIÓN!O7</f>
         <v>228667.06652806653</v>
       </c>
       <c r="F58" s="12">
@@ -2800,18 +3055,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="56"/>
-      <c r="B59" s="2" t="s">
-        <v>5</v>
+      <c r="B59" s="2" t="str">
+        <f>+FORMACIÓN!B8</f>
+        <v>Evaluaciones diagnósticas remediación 2° a 5°</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E59" s="12">
-        <f>+' FORMACIÓN'!O8</f>
+        <f>+FORMACIÓN!O8</f>
         <v>214529.85239085238</v>
       </c>
       <c r="F59" s="12">
@@ -2821,18 +3077,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="57"/>
-      <c r="B60" s="2" t="s">
-        <v>239</v>
+      <c r="B60" s="2" t="str">
+        <f>+FORMACIÓN!B9</f>
+        <v>Capacitación aplicadores pruebas EGRA</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E60" s="12">
-        <f>+' FORMACIÓN'!O9</f>
+        <f>+FORMACIÓN!O9</f>
         <v>214529.85239085238</v>
       </c>
       <c r="F60" s="12">
@@ -2842,17 +3099,17 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="55" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C61" s="1">
         <f>+MONITOREO!B17</f>
         <v>818</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E61" s="8">
         <f t="shared" ref="E61:E69" si="3">+ROUND(((B7/C61)/1000),2)*1000</f>
@@ -2866,14 +3123,14 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="57"/>
       <c r="B62" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1">
         <f>+MONITOREO!B18</f>
         <v>818</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E62" s="8">
         <f t="shared" si="3"/>
@@ -2886,17 +3143,17 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="55" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1">
         <f>+MONITOREO!B19</f>
         <v>293</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E63" s="8">
         <f t="shared" si="3"/>
@@ -2910,14 +3167,14 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="56"/>
       <c r="B64" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1">
         <f>+MONITOREO!B20</f>
         <v>293</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E64" s="8">
         <f t="shared" si="3"/>
@@ -2931,14 +3188,14 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="56"/>
       <c r="B65" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C65" s="1">
         <f>+MONITOREO!B21</f>
         <v>293</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E65" s="8">
         <f t="shared" si="3"/>
@@ -2952,14 +3209,14 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="57"/>
       <c r="B66" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C66" s="1">
         <f>+MONITOREO!B22</f>
         <v>293</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E66" s="8">
         <f t="shared" si="3"/>
@@ -2972,17 +3229,17 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="55" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C67" s="1">
         <f>+MONITOREO!B23</f>
         <v>105</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E67" s="8">
         <f t="shared" si="3"/>
@@ -2996,14 +3253,14 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="56"/>
       <c r="B68" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C68" s="1">
         <f>+MONITOREO!B24</f>
         <v>105</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E68" s="8">
         <f t="shared" si="3"/>
@@ -3017,14 +3274,14 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="57"/>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C69" s="1">
         <f>+MONITOREO!B25</f>
         <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E69" s="8">
         <f t="shared" si="3"/>
@@ -3037,17 +3294,17 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C70" s="1">
         <f>+D19</f>
         <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E70" s="8">
         <f>+G19</f>
@@ -3061,14 +3318,14 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="54"/>
       <c r="B71" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C71" s="1">
         <f>+D24</f>
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E71" s="8">
         <f>+G24</f>
@@ -3082,14 +3339,14 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="54"/>
       <c r="B72" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C72" s="1">
         <f>+D36</f>
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E72" s="8">
         <f>+G36</f>
@@ -3103,14 +3360,14 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="54"/>
       <c r="B73" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C73" s="1">
         <f>+D21</f>
         <v>275</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E73" s="8">
         <f>+G21</f>
@@ -3124,14 +3381,14 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="54"/>
       <c r="B74" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C74" s="1">
         <f>+D26</f>
         <v>293</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E74" s="8">
         <f>+G26</f>
@@ -3145,14 +3402,14 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="54"/>
       <c r="B75" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C75" s="1">
         <f>+D35</f>
         <v>105</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E75" s="8">
         <f>+F35</f>
@@ -3165,17 +3422,17 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C76" s="1">
         <f>+C42</f>
         <v>364</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E76" s="12">
         <f>+B42</f>
@@ -3188,17 +3445,17 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C77" s="1">
         <f>+C43</f>
         <v>504</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E77" s="12">
         <f>+B43</f>
@@ -3211,7 +3468,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E78" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F78" s="40">
         <f>+SUM(F54:F77)</f>
@@ -3233,79 +3490,87 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226FF7D-5FF9-4245-A67E-AA10505E47D6}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.7265625" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" customWidth="1"/>
     <col min="5" max="5" width="22.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" customWidth="1"/>
     <col min="8" max="8" width="21.54296875" customWidth="1"/>
     <col min="9" max="9" width="18.1796875" customWidth="1"/>
     <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.08984375" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7265625" customWidth="1"/>
     <col min="14" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M2" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -3328,7 +3593,7 @@
         <v>1360000</v>
       </c>
       <c r="I3" s="6">
-        <f>+H3+E3</f>
+        <f>+IF(E3=0,0,+H3+E3)</f>
         <v>2040000</v>
       </c>
       <c r="J3" s="7">
@@ -3342,25 +3607,29 @@
         <f>+K3+I3</f>
         <v>3138461.5384615385</v>
       </c>
-      <c r="M3" s="11">
-        <f>+L3+$G$20+$E$29</f>
+      <c r="M3" s="12">
+        <f>+IF(F3&gt;0,L3+$G$20+$E$29,L3)</f>
         <v>7937604.538461538</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <f>+RESUMEN!C3</f>
         <v>37</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="8">
         <f>+M3/N3</f>
         <v>214529.85239085238</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <f>+IF(F3&gt;0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
@@ -3383,7 +3652,7 @@
         <v>1360000</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I9" si="2">+H4+E4</f>
+        <f t="shared" ref="I4:I9" si="2">+IF(E4=0,0,+H4+E4)</f>
         <v>2720000</v>
       </c>
       <c r="J4" s="7">
@@ -3398,25 +3667,29 @@
         <f t="shared" ref="L4:L9" si="4">+K4+I4</f>
         <v>4184615.384615384</v>
       </c>
-      <c r="M4" s="11">
-        <f t="shared" ref="M4:M9" si="5">+L4+$G$20+$E$29</f>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M9" si="5">+IF(F4&gt;0,L4+$G$20+$E$29,L4)</f>
         <v>8983758.384615384</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <f>+N3</f>
         <v>37</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="8">
         <f t="shared" ref="O4:O9" si="6">+M4/N4</f>
         <v>242804.28066528065</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q9" si="7">+IF(F4&gt;0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3443,7 +3716,7 @@
         <v>2040000</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J9" si="7">+J4</f>
+        <f t="shared" ref="J5:J9" si="8">+J4</f>
         <v>0.35</v>
       </c>
       <c r="K5" s="8">
@@ -3454,25 +3727,29 @@
         <f t="shared" si="4"/>
         <v>3138461.5384615385</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <f t="shared" si="5"/>
         <v>7937604.538461538</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N9" si="8">+N4</f>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N9" si="9">+N4</f>
         <v>37</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="8">
         <f t="shared" si="6"/>
         <v>214529.85239085238</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -3499,7 +3776,7 @@
         <v>2040000</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
       <c r="K6" s="8">
@@ -3510,25 +3787,29 @@
         <f t="shared" si="4"/>
         <v>3138461.5384615385</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
         <v>7937604.538461538</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="8"/>
+      <c r="N6" s="1">
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="8">
         <f t="shared" si="6"/>
         <v>214529.85239085238</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -3555,7 +3836,7 @@
         <v>2380000</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
       <c r="K7" s="8">
@@ -3566,25 +3847,29 @@
         <f t="shared" si="4"/>
         <v>3661538.4615384615</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <f t="shared" si="5"/>
         <v>8460681.461538462</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="8"/>
+      <c r="N7" s="1">
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="8">
         <f t="shared" si="6"/>
         <v>228667.06652806653</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -3611,7 +3896,7 @@
         <v>2040000</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
       <c r="K8" s="8">
@@ -3622,25 +3907,29 @@
         <f t="shared" si="4"/>
         <v>3138461.5384615385</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="12">
         <f t="shared" si="5"/>
         <v>7937604.538461538</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="8"/>
+      <c r="N8" s="1">
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="8">
         <f t="shared" si="6"/>
         <v>214529.85239085238</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -3667,7 +3956,7 @@
         <v>2040000</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
       <c r="K9" s="8">
@@ -3678,22 +3967,26 @@
         <f t="shared" si="4"/>
         <v>3138461.5384615385</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="12">
         <f t="shared" si="5"/>
         <v>7937604.538461538</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="8"/>
+      <c r="N9" s="1">
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="8">
         <f t="shared" si="6"/>
         <v>214529.85239085238</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <f>+SUM(C3:C9)</f>
@@ -3701,50 +3994,58 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="6">
-        <f t="shared" ref="E10:L10" si="9">+SUM(E3:E9)</f>
+        <f t="shared" ref="E10:M10" si="10">+SUM(E3:E9)</f>
         <v>5780000</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9520000</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15300000</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8238461.538461538</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23538461.53846154</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M10" s="63">
+        <f t="shared" si="10"/>
+        <v>57132462.538461529</v>
+      </c>
+      <c r="Q10">
+        <f>+SUM(Q3:Q9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8">
         <v>500000</v>
@@ -3757,9 +4058,9 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8">
         <v>200000</v>
@@ -3772,9 +4073,9 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6">
         <v>2500000</v>
@@ -3791,7 +4092,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E17" s="9">
         <f>+SUM(E14:E16)</f>
@@ -3800,7 +4101,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E18" s="7">
         <v>0.35</v>
@@ -3808,25 +4109,32 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E19" s="8">
         <f>+E17*E18/0.7</f>
         <v>9200000</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20" s="12">
         <f>+E17+E19</f>
         <v>27600000</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
+        <f>+Q10</f>
         <v>7</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <f>+ROUND((E20/F20),0)</f>
         <v>3942857</v>
       </c>
@@ -3836,13 +4144,13 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1">
         <f>+E33</f>
@@ -3852,7 +4160,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C24" s="8">
         <v>15000</v>
@@ -3861,7 +4169,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1">
         <v>8</v>
@@ -3870,7 +4178,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C26" s="12">
         <f>+C23*C24*C25</f>
@@ -3880,7 +4188,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C27" s="7">
         <v>0.35</v>
@@ -3889,51 +4197,57 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C28" s="8">
         <f>+C26*C27</f>
         <v>1554000</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="D28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C29" s="12">
         <f>+C28+C26</f>
         <v>5994000</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
+        <f>+F20</f>
         <v>7</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <f>+ROUND((C29/D29),0)</f>
         <v>856286</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E32" s="12">
-        <f>+E20+L10+C29</f>
-        <v>57132461.538461536</v>
+        <f>+M10</f>
+        <v>57132462.538461529</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E33" s="1">
-        <f>+Matrícula!T13</f>
+        <f>+'DATOS ENTRADA'!C9</f>
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E34" s="8">
         <f>+ROUND(((E32/E33)/1000000),3)*1000000</f>
@@ -3948,11 +4262,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F493B953-B6E1-4E5B-86DB-2F5BCE154A62}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3977,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E1" s="8">
         <f>+'BASE OPERACIÓN'!C5</f>
@@ -3986,10 +4300,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E2" s="8">
         <f>+E1/20</f>
@@ -3998,13 +4312,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E3" s="8">
         <f>+E2/8</f>
@@ -4014,7 +4328,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B4" s="12">
         <f>ROUND((+M17/1000000),3)*1000000</f>
@@ -4022,7 +4336,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -4032,14 +4346,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B5" s="12">
         <f t="shared" ref="B5:B12" si="0">+ROUND((M18/1000000),3)*1000000</f>
         <v>28481000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1">
         <f>+E3/E4</f>
@@ -4049,7 +4363,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
@@ -4059,7 +4373,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
@@ -4069,7 +4383,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
@@ -4079,7 +4393,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
@@ -4089,7 +4403,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
@@ -4099,7 +4413,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
@@ -4109,7 +4423,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
@@ -4119,7 +4433,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="40">
         <f>+SUM(B4:B12)</f>
@@ -4132,48 +4446,48 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1">
         <f>+'BASE OPERACIÓN'!D23+'BASE OPERACIÓN'!D25</f>
@@ -4224,7 +4538,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1">
         <f>+B17</f>
@@ -4278,7 +4592,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1">
         <f>+'BASE OPERACIÓN'!D23</f>
@@ -4332,7 +4646,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1">
         <f>+B19</f>
@@ -4386,7 +4700,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="11">+B20</f>
@@ -4440,7 +4754,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="11"/>
@@ -4494,7 +4808,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1">
         <f>+'BASE OPERACIÓN'!F25</f>
@@ -4548,7 +4862,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1">
         <f>+B23</f>
@@ -4602,7 +4916,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1">
         <f>+B24</f>
@@ -4658,14 +4972,14 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D26" s="12">
         <f>+SUM(D17:D25)</f>
         <v>1561500</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F26" s="12">
         <f>+SUM(F17:F25)</f>
@@ -4683,7 +4997,7 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M26" s="12">
         <f>+SUM(M17:M25)</f>
@@ -4696,36 +5010,36 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -4757,7 +5071,7 @@
     </row>
     <row r="33" spans="1:14" ht="155" x14ac:dyDescent="0.35">
       <c r="A33" s="37" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -4790,7 +5104,7 @@
     </row>
     <row r="34" spans="1:14" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4822,7 +5136,7 @@
     </row>
     <row r="35" spans="1:14" ht="155" x14ac:dyDescent="0.35">
       <c r="A35" s="37" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -4854,7 +5168,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="37" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B38" s="5">
         <f>+E3</f>
@@ -4863,38 +5177,38 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A42" s="37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B42" s="12">
         <f>+B32*$B$38</f>
@@ -4938,7 +5252,7 @@
     </row>
     <row r="43" spans="1:14" ht="155" x14ac:dyDescent="0.35">
       <c r="A43" s="37" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B43" s="12">
         <f t="shared" ref="B43:L43" si="13">+B33*$B$38</f>
@@ -4981,7 +5295,7 @@
     </row>
     <row r="44" spans="1:14" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A44" s="37" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B44" s="12">
         <f t="shared" ref="B44:L44" si="14">+B34*$B$38</f>
@@ -5024,7 +5338,7 @@
     </row>
     <row r="45" spans="1:14" ht="155" x14ac:dyDescent="0.35">
       <c r="A45" s="37" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B45" s="12">
         <f t="shared" ref="B45:L45" si="15">+B35*$B$38</f>
@@ -5120,7 +5434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B4377E-86E6-42A5-B4F7-D94DC8C3F4BE}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -5143,48 +5457,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="58" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
       <c r="E1" s="58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -5221,7 +5535,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5">
         <f>+('BASE OPERACIÓN'!J29+'BASE OPERACIÓN'!C37+'BASE OPERACIÓN'!E48+'BASE OPERACIÓN'!F86)*0.5</f>
@@ -5230,7 +5544,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B6">
         <f>+ROUND(('BASE OPERACIÓN'!F25/8),0)</f>
@@ -5239,7 +5553,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B7">
         <f>+J3</f>
@@ -5248,7 +5562,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B8">
         <f>+B6*B7</f>
@@ -5258,7 +5572,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B9" s="5">
         <f>+ROUND((B5/B8)/100000,3)*100000</f>
@@ -5270,7 +5584,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B12" s="11">
         <f>+B5</f>
@@ -5279,12 +5593,12 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <v>40</v>
@@ -5292,7 +5606,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -5300,7 +5614,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B16" s="14">
         <f>+Matrícula!M13+Matrícula!O13</f>
@@ -5309,7 +5623,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B17">
         <f>+B16*B15</f>
@@ -5318,7 +5632,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B18" s="5">
         <f>+ROUND(((B12/B17)/100000),3)*100000</f>
@@ -5334,7 +5648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5A8575-6080-4D9B-A550-599888E5F472}">
   <dimension ref="A2:J114"/>
   <sheetViews>
@@ -5357,15 +5671,15 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C3" s="8">
         <v>3500000</v>
@@ -5373,7 +5687,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8">
         <v>3500000</v>
@@ -5381,7 +5695,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>9900000</v>
@@ -5389,7 +5703,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8">
         <v>5500000</v>
@@ -5400,68 +5714,68 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <f>20*25</f>
         <v>500</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="61" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1">
         <f>+C15/C11</f>
@@ -5474,7 +5788,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1">
         <f>+C16/C11</f>
@@ -5484,18 +5798,18 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
         <v>200</v>
@@ -5510,22 +5824,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="J21" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -5533,13 +5847,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1">
         <v>275</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1">
         <f>+D22/C11</f>
@@ -5568,7 +5882,7 @@
         <v>293</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1">
         <f>+D23/C11</f>
@@ -5595,23 +5909,23 @@
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
       <c r="D24" s="59" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -5621,7 +5935,7 @@
         <v>525</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1">
         <f>+D25*D19</f>
@@ -5647,7 +5961,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G26" s="14"/>
       <c r="I26" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J26" s="21">
         <f>+J25+J23+J22</f>
@@ -5657,7 +5971,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G27" s="14"/>
       <c r="I27" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J27" s="32">
         <v>0.35</v>
@@ -5667,7 +5981,7 @@
       <c r="C28" s="11"/>
       <c r="G28" s="14"/>
       <c r="I28" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J28" s="8">
         <f>+J26*J27/(1-J27)</f>
@@ -5676,12 +5990,12 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29" s="11"/>
       <c r="G29" s="14"/>
       <c r="I29" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J29" s="12">
         <f>+J26+J28</f>
@@ -5690,7 +6004,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C30" s="15">
         <f>+ROUND((G22+G23+G25),0)</f>
@@ -5701,7 +6015,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C31" s="12">
         <v>600000</v>
@@ -5711,7 +6025,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C32" s="12">
         <f>+C31*C30</f>
@@ -5722,7 +6036,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C33" s="12">
         <v>10</v>
@@ -5732,7 +6046,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C34" s="12">
         <f>+C32*C33</f>
@@ -5743,7 +6057,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C35" s="33">
         <v>0.35</v>
@@ -5753,7 +6067,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C36" s="12">
         <f>+C34*C35/(1-C35)</f>
@@ -5764,7 +6078,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C37" s="12">
         <f>+C36+C34</f>
@@ -5780,23 +6094,23 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G39" s="14"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C40" s="12">
         <v>800000</v>
@@ -5814,7 +6128,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C41" s="12">
         <v>100000</v>
@@ -5832,7 +6146,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C42" s="12">
         <v>1850000</v>
@@ -5850,7 +6164,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C43" s="12">
         <v>500000</v>
@@ -5868,7 +6182,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C44" s="12">
         <v>900000</v>
@@ -5887,7 +6201,7 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C45" s="11"/>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E45" s="12">
         <f>+SUM(E40:E44)</f>
@@ -5899,7 +6213,7 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C46" s="11"/>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E46" s="33">
         <v>0.35</v>
@@ -5910,7 +6224,7 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C47" s="11"/>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E47" s="12">
         <f>+E45*E46/(1-E46)</f>
@@ -5922,7 +6236,7 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C48" s="11"/>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E48" s="12">
         <f>+E45+E47</f>
@@ -5948,7 +6262,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C52" s="11"/>
       <c r="G52" s="14"/>
@@ -5961,32 +6275,32 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="44" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="53" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D55" s="6">
         <v>44200</v>
@@ -6012,7 +6326,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="53"/>
       <c r="C56" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D56" s="6">
         <v>45500</v>
@@ -6038,7 +6352,7 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="53"/>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D57" s="6">
         <v>7592</v>
@@ -6064,7 +6378,7 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="53"/>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D58" s="6">
         <v>7982</v>
@@ -6090,7 +6404,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="53"/>
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D59" s="6">
         <v>3731</v>
@@ -6115,10 +6429,10 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D60" s="6">
         <v>100100</v>
@@ -6144,7 +6458,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="53"/>
       <c r="C61" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D61" s="6">
         <v>104000</v>
@@ -6170,7 +6484,7 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="53"/>
       <c r="C62" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D62" s="6">
         <v>6812</v>
@@ -6196,7 +6510,7 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="53"/>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D63" s="6">
         <v>8294</v>
@@ -6222,7 +6536,7 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="53"/>
       <c r="C64" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D64" s="6">
         <v>8723</v>
@@ -6248,7 +6562,7 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="53"/>
       <c r="C65" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D65" s="6">
         <v>7371</v>
@@ -6274,7 +6588,7 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="53"/>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D66" s="6">
         <v>4316</v>
@@ -6300,7 +6614,7 @@
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="53"/>
       <c r="C67" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D67" s="6">
         <v>559000</v>
@@ -6326,7 +6640,7 @@
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="53"/>
       <c r="C68" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D68" s="6">
         <v>42900</v>
@@ -6352,7 +6666,7 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="53"/>
       <c r="C69" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D69" s="6">
         <v>186940</v>
@@ -6378,7 +6692,7 @@
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="53"/>
       <c r="C70" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D70" s="6">
         <v>15327</v>
@@ -6403,10 +6717,10 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D71" s="6">
         <v>16900</v>
@@ -6432,7 +6746,7 @@
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="53"/>
       <c r="C72" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D72" s="6">
         <v>182390</v>
@@ -6458,7 +6772,7 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="53"/>
       <c r="C73" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D73" s="6">
         <v>182390</v>
@@ -6484,7 +6798,7 @@
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="53"/>
       <c r="C74" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D74" s="6">
         <v>157300</v>
@@ -6510,7 +6824,7 @@
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C75" s="11"/>
       <c r="E75" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F75" s="9">
         <f>+SUM(F55:F74)</f>
@@ -6522,7 +6836,7 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C76" s="11"/>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F76" s="32">
         <v>0.35</v>
@@ -6533,7 +6847,7 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C77" s="11"/>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F77" s="12">
         <f>+F75*F76</f>
@@ -6545,7 +6859,7 @@
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C78" s="11"/>
       <c r="E78" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F78" s="9">
         <f>+F77+F75</f>
@@ -6561,26 +6875,26 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G80" s="14"/>
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C81" s="12">
         <f>+C5</f>
@@ -6601,7 +6915,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="1">
@@ -6622,7 +6936,7 @@
       <c r="C83" s="12"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F83" s="9">
         <f>+F81+F82</f>
@@ -6634,7 +6948,7 @@
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C84" s="11"/>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F84" s="32">
         <v>0.35</v>
@@ -6645,7 +6959,7 @@
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C85" s="11"/>
       <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F85" s="9">
         <f>+F83*F84</f>
@@ -6657,7 +6971,7 @@
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C86" s="11"/>
       <c r="E86" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F86" s="9">
         <f>+F83+F85</f>
@@ -6684,7 +6998,7 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C90" s="34">
         <f>+MONITOREO!B13</f>
@@ -6714,11 +7028,11 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C94" s="8">
-        <f>+' FORMACIÓN'!E32</f>
-        <v>57132461.538461536</v>
+        <f>+FORMACIÓN!E32</f>
+        <v>57132462.538461529</v>
       </c>
       <c r="D94" s="1"/>
       <c r="G94" s="14"/>
@@ -6732,31 +7046,31 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G96" s="14"/>
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C97" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C98" s="12">
         <f>+J29+E48</f>
@@ -6781,7 +7095,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C99" s="12">
         <f>+F86</f>
@@ -6806,7 +7120,7 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C100" s="12">
         <f>+C37</f>
@@ -6831,7 +7145,7 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C101" s="12">
         <f>+F78</f>
@@ -6856,7 +7170,7 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C102" s="12">
         <f>+C90</f>
@@ -6881,40 +7195,40 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C103" s="12">
         <f>+C94</f>
-        <v>57132461.538461536</v>
+        <v>57132462.538461529</v>
       </c>
       <c r="D103" s="8">
         <f t="shared" si="7"/>
-        <v>114264923.07692307</v>
+        <v>114264925.07692306</v>
       </c>
       <c r="E103" s="6">
         <f>+D103*2</f>
-        <v>228529846.15384614</v>
+        <v>228529850.15384611</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" ref="F103" si="8">+E103*2</f>
-        <v>457059692.30769229</v>
+        <v>457059700.30769223</v>
       </c>
       <c r="G103" s="6">
         <f>+F103*1.5</f>
-        <v>685589538.46153843</v>
+        <v>685589550.46153831</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C104" s="12">
         <f>+SUM(C98:C103)</f>
-        <v>528380214.87435889</v>
+        <v>528380215.87435889</v>
       </c>
       <c r="D104" s="12">
         <f>+SUM(D98:D103)</f>
-        <v>955780429.74871778</v>
+        <v>955780431.74871778</v>
       </c>
       <c r="E104" s="12" t="e">
         <f t="shared" ref="E104:G104" si="9">+SUM(E98:E103)</f>
@@ -6931,7 +7245,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C105" s="27">
         <v>0.3</v>
@@ -6952,15 +7266,15 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C106" s="8">
         <f>+C104*C105/(1-C105)</f>
-        <v>226448663.51758239</v>
+        <v>226448663.94615382</v>
       </c>
       <c r="D106" s="8">
         <f>+D104*D105/(1-D105)</f>
-        <v>409620184.17802191</v>
+        <v>409620185.03516483</v>
       </c>
       <c r="E106" s="8" t="e">
         <f t="shared" ref="E106:G106" si="10">+E104*E105/(1-E105)</f>
@@ -6977,15 +7291,15 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C107" s="12">
         <f>+C106+C104</f>
-        <v>754828878.39194131</v>
+        <v>754828879.82051277</v>
       </c>
       <c r="D107" s="12">
         <f>+D106+D104</f>
-        <v>1365400613.9267397</v>
+        <v>1365400616.7838826</v>
       </c>
       <c r="E107" s="12" t="e">
         <f t="shared" ref="E107:G107" si="11">+E106+E104</f>
@@ -7009,7 +7323,7 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C109" s="12" t="e">
         <f>+J28+C36+F77+F85+#REF!+#REF!</f>
@@ -7034,7 +7348,7 @@
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C110" s="12" t="e">
         <f>+C109+C106</f>
@@ -7059,7 +7373,7 @@
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C111" s="27" t="e">
         <f>+C110/C107</f>
@@ -7084,7 +7398,7 @@
     </row>
     <row r="113" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B113" s="26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C113" s="1">
         <f>+D22+D23+D25</f>
@@ -7109,15 +7423,15 @@
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C114" s="8">
         <f>+C107/C113</f>
-        <v>690602.81646106252</v>
+        <v>690602.81776808121</v>
       </c>
       <c r="D114" s="8">
         <f t="shared" ref="D114:G114" si="15">+D107/D113</f>
-        <v>624611.44278441893</v>
+        <v>624611.44409143762</v>
       </c>
       <c r="E114" s="8" t="e">
         <f t="shared" si="15"/>
@@ -7146,7 +7460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872609F8-542B-49D5-95BD-D8D7BE7ED898}">
   <dimension ref="A3:B8"/>
   <sheetViews>
@@ -7162,7 +7476,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8">
         <v>170000</v>
@@ -7170,7 +7484,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>0.3</v>
@@ -7178,7 +7492,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8">
         <f>+B3*B4/(1-B4)</f>
@@ -7187,7 +7501,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B6" s="12">
         <f>+B3+B5</f>
@@ -7196,7 +7510,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B7" s="30">
         <v>12</v>
@@ -7204,7 +7518,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8">
         <f>+B6*B7</f>
@@ -7216,7 +7530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB850E8-DF39-4EA5-9162-DB28BD16CFA9}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -7236,27 +7550,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -7278,7 +7592,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7300,7 +7614,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -7322,7 +7636,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -7344,7 +7658,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7359,7 +7673,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -7381,7 +7695,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7395,7 +7709,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7410,7 +7724,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7425,7 +7739,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7441,7 +7755,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7457,7 +7771,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -7479,7 +7793,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1">
         <v>0.5</v>
@@ -7502,7 +7816,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1">
         <v>0.2</v>
@@ -7524,149 +7838,11 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="12">
         <f>+F12+F15+F16+F14</f>
         <v>492172042.00213999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8FBFDD-6B74-48FA-BE3E-C18C40BE5BEC}">
-  <dimension ref="A3:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="8">
-        <v>11183117</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="D4" s="23">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8">
-        <f>+B4*C4*D4</f>
-        <v>4025922.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4978138</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="23">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:E8" si="0">+B5*C5*D5</f>
-        <v>1792129.6799999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="8">
-        <v>21773036</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="23">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>13063821.600000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="8">
-        <v>7992996</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="23">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>4795797.6000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="8">
-        <v>4978138</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="23">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>2986882.8000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="12">
-        <f>+SUM(E4:E8)</f>
-        <v>26664553.800000004</v>
       </c>
     </row>
   </sheetData>
